--- a/結合テスト仕様書_.xlsx
+++ b/結合テスト仕様書_.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
   </bookViews>
   <sheets>
     <sheet name="test_0001" sheetId="3" r:id="rId1"/>
@@ -805,6 +805,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -820,9 +829,6 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -830,12 +836,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1060,7 +1060,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -1079,10 +1079,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1092,10 +1092,10 @@
       <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="34"/>
+      <c r="G1" s="37"/>
       <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1120,14 +1120,14 @@
       <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="36"/>
+      <c r="F2" s="32"/>
       <c r="G2" s="12" t="s">
         <v>9</v>
       </c>
@@ -1151,14 +1151,14 @@
       <c r="B3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="39" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="36"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="16" t="s">
         <v>18</v>
       </c>
@@ -1180,14 +1180,14 @@
       <c r="B4" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="41" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="36"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="22" t="s">
         <v>18</v>
       </c>
@@ -1209,14 +1209,14 @@
       <c r="B5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="41" t="s">
+      <c r="D5" s="32"/>
+      <c r="E5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="36"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="27" t="s">
         <v>18</v>
       </c>
@@ -1240,14 +1240,14 @@
       <c r="B6" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="41" t="s">
+      <c r="D6" s="32"/>
+      <c r="E6" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="36"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="27" t="s">
         <v>18</v>
       </c>
@@ -1269,14 +1269,14 @@
       <c r="B7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="41" t="s">
+      <c r="D7" s="32"/>
+      <c r="E7" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="36"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="27" t="s">
         <v>18</v>
       </c>
@@ -1298,14 +1298,14 @@
       <c r="B8" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="41" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="36"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="27" t="s">
         <v>18</v>
       </c>
@@ -1415,6 +1415,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C6:D6"/>
@@ -1425,12 +1431,6 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/結合テスト仕様書_.xlsx
+++ b/結合テスト仕様書_.xlsx
@@ -1060,7 +1060,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>

--- a/結合テスト仕様書_.xlsx
+++ b/結合テスト仕様書_.xlsx
@@ -413,14 +413,20 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>全角数字で送れる</t>
+    <t>全角数字の顧客一覧にデータ送れる</t>
     <rPh sb="0" eb="2">
       <t>ゼンカク</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>スウジ</t>
     </rPh>
-    <rPh sb="5" eb="6">
+    <rPh sb="5" eb="7">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
       <t>オク</t>
     </rPh>
     <phoneticPr fontId="11"/>
@@ -805,37 +811,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1060,7 +1066,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -1079,10 +1085,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1092,10 +1098,10 @@
       <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="37"/>
+      <c r="G1" s="34"/>
       <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1120,14 +1126,14 @@
       <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="39" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="32"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="12" t="s">
         <v>9</v>
       </c>
@@ -1151,14 +1157,14 @@
       <c r="B3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="41" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="32"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="16" t="s">
         <v>18</v>
       </c>
@@ -1180,14 +1186,14 @@
       <c r="B4" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="32"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="22" t="s">
         <v>18</v>
       </c>
@@ -1209,14 +1215,14 @@
       <c r="B5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33" t="s">
+      <c r="D5" s="36"/>
+      <c r="E5" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="32"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="27" t="s">
         <v>18</v>
       </c>
@@ -1240,14 +1246,14 @@
       <c r="B6" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="33" t="s">
+      <c r="D6" s="36"/>
+      <c r="E6" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="32"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="27" t="s">
         <v>18</v>
       </c>
@@ -1269,14 +1275,14 @@
       <c r="B7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33" t="s">
+      <c r="D7" s="36"/>
+      <c r="E7" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="32"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="27" t="s">
         <v>18</v>
       </c>
@@ -1298,14 +1304,14 @@
       <c r="B8" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33" t="s">
+      <c r="D8" s="36"/>
+      <c r="E8" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="32"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="27" t="s">
         <v>18</v>
       </c>
@@ -1415,12 +1421,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C6:D6"/>
@@ -1431,6 +1431,12 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/結合テスト仕様書_.xlsx
+++ b/結合テスト仕様書_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>課題キー</t>
   </si>
@@ -180,16 +180,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>編集はされないで、元のデータになる。</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>モト</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>新規追加ボタン、検索・更新・削除の検索ボタン</t>
     <rPh sb="0" eb="2">
       <t>シンキ</t>
@@ -232,19 +222,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>検索・更新・削除の検索・更新・削除ボタン</t>
-    <rPh sb="9" eb="11">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>コウシンテン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>新規追加ボタン</t>
     <rPh sb="0" eb="2">
       <t>シンキ</t>
@@ -286,28 +263,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>検索ボタンを押して、検索されたデータを編集中に編集ボタンを押さないで、閉じるとデータは変わるのか</t>
-    <rPh sb="10" eb="12">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>ヘンシュウチュウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>重田</t>
     <rPh sb="0" eb="2">
       <t>シゲタ</t>
@@ -344,10 +299,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>〇</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>検索ボタンを押して、呼び出した検索されたデータを削除ボタンを押さないで全部削除して、編集ボタンを押すと編集されるか</t>
     <rPh sb="0" eb="2">
       <t>ケンサク</t>
@@ -428,6 +379,70 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>検索・更新・削除ボタン</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>検索ボタンを押して、検索されたデータを編集中に編集ボタンを押さないで、検索ボタンを押すと、新しいデータを抽出できるか</t>
+    <rPh sb="10" eb="12">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ヘンシュウチュウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>編集ボタンを押してないので、元のデータは変更はしない。呼び出したいデータは抽出する</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>性別のデータだけエラーがおきる。</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -1066,7 +1081,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -1116,7 +1131,7 @@
 [" &amp; COUNTIF(J4:J993,"×") &amp; "件 " &amp;
 ROUND( (COUNTIF(J4:J993,"×") ) / ( COUNTA(G4:G993) ) *100, 1) &amp; "%]"</f>
         <v>5/5件
-[1件 20%]</v>
+[2件 40%]</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
@@ -1184,10 +1199,10 @@
         <v>21</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="41" t="s">
@@ -1198,13 +1213,13 @@
         <v>18</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I4" s="24">
         <v>44040</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K4" s="26"/>
     </row>
@@ -1213,10 +1228,10 @@
         <v>22</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D5" s="36"/>
       <c r="E5" s="41" t="s">
@@ -1227,16 +1242,16 @@
         <v>18</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I5" s="24">
         <v>44040</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
@@ -1244,7 +1259,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="40" t="s">
         <v>31</v>
@@ -1258,42 +1273,44 @@
         <v>18</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I6" s="24">
         <v>44040</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="30"/>
+        <v>41</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
       <c r="A7" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="41" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F7" s="36"/>
       <c r="G7" s="27" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I7" s="24">
         <v>44040</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K7" s="28"/>
     </row>
@@ -1302,27 +1319,27 @@
         <v>25</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D8" s="36"/>
       <c r="E8" s="41" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F8" s="36"/>
       <c r="G8" s="27" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I8" s="24">
         <v>44040</v>
       </c>
       <c r="J8" s="25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K8" s="28"/>
     </row>

--- a/結合テスト仕様書_.xlsx
+++ b/結合テスト仕様書_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
   <si>
     <t>課題キー</t>
   </si>
@@ -443,6 +443,63 @@
     <t>性別のデータだけエラーがおきる。</t>
     <rPh sb="0" eb="2">
       <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>検索・削除・更新ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>データを抽出していない時に、削除ボタンを押すと、何のデータが消えるのか</t>
+    <rPh sb="4" eb="6">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>データを抽出していないの時に削除ボタンを押しても、データは消えない。</t>
+    <rPh sb="4" eb="6">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>キ</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -826,6 +883,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -841,9 +907,6 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -851,12 +914,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1081,7 +1138,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -1100,10 +1157,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1113,10 +1170,10 @@
       <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="34"/>
+      <c r="G1" s="37"/>
       <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1130,8 +1187,8 @@
         <f>COUNTA(J4:J993) &amp; "/"&amp;COUNTA(G4:G993) &amp; "件
 [" &amp; COUNTIF(J4:J993,"×") &amp; "件 " &amp;
 ROUND( (COUNTIF(J4:J993,"×") ) / ( COUNTA(G4:G993) ) *100, 1) &amp; "%]"</f>
-        <v>5/5件
-[2件 40%]</v>
+        <v>6/6件
+[2件 33.3%]</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
@@ -1141,14 +1198,14 @@
       <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="36"/>
+      <c r="F2" s="32"/>
       <c r="G2" s="12" t="s">
         <v>9</v>
       </c>
@@ -1172,14 +1229,14 @@
       <c r="B3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="39" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="36"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="16" t="s">
         <v>18</v>
       </c>
@@ -1201,14 +1258,14 @@
       <c r="B4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="41" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="36"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="22" t="s">
         <v>18</v>
       </c>
@@ -1230,14 +1287,14 @@
       <c r="B5" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="41" t="s">
+      <c r="D5" s="32"/>
+      <c r="E5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="36"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="27" t="s">
         <v>18</v>
       </c>
@@ -1261,14 +1318,14 @@
       <c r="B6" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="41" t="s">
+      <c r="D6" s="32"/>
+      <c r="E6" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="36"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="27" t="s">
         <v>18</v>
       </c>
@@ -1292,14 +1349,14 @@
       <c r="B7" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="41" t="s">
+      <c r="D7" s="32"/>
+      <c r="E7" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="36"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="27" t="s">
         <v>18</v>
       </c>
@@ -1321,14 +1378,14 @@
       <c r="B8" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="41" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="36"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="27" t="s">
         <v>18</v>
       </c>
@@ -1343,18 +1400,34 @@
       </c>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+    <row r="9" spans="1:11" ht="60.6" customHeight="1">
+      <c r="A9" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="24">
+        <v>44041</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="29" t="s">
@@ -1437,7 +1510,15 @@
       <c r="K15" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C6:D6"/>
@@ -1448,12 +1529,6 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
